--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2182283.592495915</v>
+        <v>-2185002.99364016</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95836603255682</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.9430992003371</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.1125496957013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,10 +874,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>141.870195912271</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>28.50950898875319</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.3642731739563</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>184.674579252323</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.7606266850061</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>292.3304093648399</v>
+        <v>291.5505439554538</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>233.0913360780293</v>
+        <v>90.63268199953377</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176514</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>121.3986907513285</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>25.2632269748843</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505419</v>
+        <v>20.66101211578988</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652659</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1486825368356</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1627777472281</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>304.708719694602</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>714.7112860448132</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>545.7751031169063</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>395.6584637045705</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>247.7453701221774</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>100.855422624267</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W4" t="n">
-        <v>427.1494310484136</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="X4" t="n">
-        <v>199.1598801503962</v>
+        <v>896.3597508750529</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>896.3597508750529</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>927.3338691908032</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>569.0681705840527</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>569.0681705840527</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>158.0822657944452</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>146.4179195591381</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.446123173937</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.446123173937</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2309.446123173937</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>2309.446123173937</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.306791198125</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1449.906141031747</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1449.906141031747</v>
       </c>
       <c r="V7" t="n">
-        <v>1173.832200068228</v>
+        <v>1195.22165282586</v>
       </c>
       <c r="W7" t="n">
-        <v>884.4150300312675</v>
+        <v>905.8044827888993</v>
       </c>
       <c r="X7" t="n">
-        <v>656.4254791332502</v>
+        <v>677.814931890882</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.248325790971</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="D8" t="n">
-        <v>743.982627184221</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="E8" t="n">
-        <v>358.1943745859767</v>
+        <v>727.8394249147543</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.8852429786115</v>
+        <v>772.8067472977393</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786115</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1401.000326056286</v>
+        <v>1544.897956438604</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.315837850399</v>
+        <v>1290.213468232717</v>
       </c>
       <c r="W10" t="n">
-        <v>1146.315837850399</v>
+        <v>1000.796298195757</v>
       </c>
       <c r="X10" t="n">
-        <v>918.3262869523813</v>
+        <v>772.8067472977393</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.5337078088512</v>
+        <v>772.8067472977393</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400753</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121684</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>298.5283065529154</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038379</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.38585385471</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648823</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611863</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138452</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570315</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913854</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.444672494519</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2238.589838149423</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.988373172364</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>658.7722159733504</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>510.8591223909573</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142544</v>
+        <v>363.9691748930469</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142544</v>
+        <v>196.7730756079268</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606607</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327538</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6403,31 +6403,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,25 +6853,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380723</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7348,7 +7348,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,31 +7549,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7582,7 +7582,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7649,10 +7649,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,31 +7804,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538930051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.4490126143846</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460948</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>359.5893367403972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>235.6455902361453</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>147.9734492538525</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.65280242432</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664472</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.11201973523738</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711697</v>
+        <v>119.633700730434</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.7094839302714</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26314,31 +26314,31 @@
         <v>48691.36674215493</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675043</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675047</v>
-      </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982118</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26347,13 +26347,13 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36246.77703493719</v>
+        <v>36246.77703493723</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731898</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731954</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426732004</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731988</v>
-      </c>
       <c r="J4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="K4" t="n">
         <v>16108.17168982541</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="M4" t="n">
         <v>16108.17168982544</v>
       </c>
-      <c r="L4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>16108.1716898254</v>
+      </c>
+      <c r="O4" t="n">
         <v>16108.17168982542</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>16108.17168982543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1195244.966308546</v>
+        <v>-1195674.525175135</v>
       </c>
       <c r="C6" t="n">
         <v>-165677.6399618872</v>
@@ -26528,40 +26528,40 @@
         <v>-165677.6399618872</v>
       </c>
       <c r="E6" t="n">
-        <v>-556189.2888984348</v>
+        <v>-556224.0268238701</v>
       </c>
       <c r="F6" t="n">
-        <v>-48703.84727388861</v>
+        <v>-48738.58519932438</v>
       </c>
       <c r="G6" t="n">
-        <v>-48703.8472738886</v>
+        <v>-48738.58519932432</v>
       </c>
       <c r="H6" t="n">
-        <v>-48703.84727388861</v>
+        <v>-48738.58519932438</v>
       </c>
       <c r="I6" t="n">
-        <v>-48703.84727388864</v>
+        <v>-48738.58519932433</v>
       </c>
       <c r="J6" t="n">
         <v>-244727.050607534</v>
       </c>
       <c r="K6" t="n">
-        <v>-57694.15480391968</v>
+        <v>-57694.15480391964</v>
       </c>
       <c r="L6" t="n">
-        <v>-57694.1548039196</v>
+        <v>-57694.15480391959</v>
       </c>
       <c r="M6" t="n">
-        <v>-190301.4485328465</v>
+        <v>-190301.4485328463</v>
       </c>
       <c r="N6" t="n">
-        <v>-57694.15480391957</v>
+        <v>-57694.15480391956</v>
       </c>
       <c r="O6" t="n">
         <v>-77121.87279755135</v>
       </c>
       <c r="P6" t="n">
-        <v>-57694.15480391965</v>
+        <v>-57694.15480391958</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.5953784812677</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.32139020186398</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>117.1940503491029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>272.5090435736522</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.680976954505752</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>36.07411674488898</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>80.37701663882191</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>114.5456363768716</v>
+        <v>115.3255017862576</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>53.13581804317127</v>
+        <v>195.5944721216669</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.588602628579288e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.97297820841818e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111466</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190222</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>251.8861049150245</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814848</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34369,13 +34369,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113899</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824148</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>484.1293732522348</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980272</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6095743667022</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096386</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745777</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316912</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876629</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202556</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37391,19 +37391,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.489036137031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
@@ -38187,13 +38187,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
